--- a/data/input/absenteeism_data_24.xlsx
+++ b/data/input/absenteeism_data_24.xlsx
@@ -476,277 +476,277 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>72525</v>
+        <v>51695</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dra. Luiza Duarte</t>
+          <t>Maria Julia da Cruz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="G2" t="n">
-        <v>12158.65</v>
+        <v>10411.51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79511</v>
+        <v>44291</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Davi Luiz Santos</t>
+          <t>Raquel Correia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45104</v>
+        <v>45086</v>
       </c>
       <c r="G3" t="n">
-        <v>3167.51</v>
+        <v>10515.76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13622</v>
+        <v>89011</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Carolina da Rocha</t>
+          <t>Dra. Ana Beatriz Sales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45091</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>5868.65</v>
+        <v>5208.96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>77458</v>
+        <v>56504</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amanda Costa</t>
+          <t>Maitê da Conceição</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="G5" t="n">
-        <v>4120.79</v>
+        <v>9751.200000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>48359</v>
+        <v>99775</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Leonardo Ramos</t>
+          <t>Vicente Barbosa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45083</v>
       </c>
       <c r="G6" t="n">
-        <v>8572.92</v>
+        <v>4703.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>47994</v>
+        <v>46444</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dra. Emanuelly Correia</t>
+          <t>Maria Eduarda Duarte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="G7" t="n">
-        <v>5559.05</v>
+        <v>11341.51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>29335</v>
+        <v>92608</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Agatha Barbosa</t>
+          <t>Renan Costela</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45092</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>9761.83</v>
+        <v>10713.22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>57370</v>
+        <v>39707</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dra. Emilly Duarte</t>
+          <t>Davi Lucas Ferreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45089</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>2908.59</v>
+        <v>7402.21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>53093</v>
+        <v>40106</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maysa Porto</t>
+          <t>Clara Gomes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45094</v>
+        <v>45079</v>
       </c>
       <c r="G10" t="n">
-        <v>4752.51</v>
+        <v>3319.44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>38707</v>
+        <v>89318</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sra. Ana Julia Ferreira</t>
+          <t>Diego Fernandes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>3365.24</v>
+        <v>10035.42</v>
       </c>
     </row>
   </sheetData>
